--- a/RMPP/RMPP_Unit09_Exa9.1D.xlsx
+++ b/RMPP/RMPP_Unit09_Exa9.1D.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_F8871D6DCD9709C9AAE33394B41C516C04133891" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB7C6686-E232-4AE4-823E-12C7AF3DAA39}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870"/>
+    <workbookView xWindow="28185" yWindow="0" windowWidth="25665" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="12">
   <si>
     <t>Area</t>
   </si>
@@ -47,15 +66,21 @@
   <si>
     <t>Area 2</t>
   </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>It is clear from the chart that Brand A is the least preferred, followed by Brand B, while the majority of respondents preferred another brand.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,12 +138,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -136,16 +179,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15059593908379143"/>
+          <c:y val="0.14577850279694024"/>
+          <c:w val="0.828529962138987"/>
+          <c:h val="0.70106860091168022"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$D$15:$D$17</c:f>
@@ -181,7 +237,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60F9-4E47-80AB-C6C322F2A1EF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="95354240"/>
         <c:axId val="115398528"/>
       </c:barChart>
@@ -190,6 +260,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -207,20 +278,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="115398528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="115398528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -238,9 +314,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="95354240"/>
         <c:crosses val="autoZero"/>
@@ -248,6 +326,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -274,7 +354,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -289,13 +375,75 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466062</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33990E0A-6AEB-E6A7-2544-3E7BFC6E44C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9791700" y="85725"/>
+          <a:ext cx="5304762" cy="3619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +481,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -367,6 +515,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -401,9 +550,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,14 +726,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -599,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -610,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -619,7 +774,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -634,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -653,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -672,7 +827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -691,7 +846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -710,7 +865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -720,7 +875,7 @@
       <c r="D10" s="4"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -730,7 +885,7 @@
       <c r="D11" s="4"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -742,7 +897,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -752,7 +907,7 @@
       <c r="D13" s="4"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -767,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -786,7 +941,7 @@
         <v>21.111111111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -805,7 +960,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -824,7 +979,7 @@
         <v>45.555555555555557</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -843,7 +998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -851,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -859,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -867,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -875,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -883,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -891,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -899,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -907,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -915,23 +1070,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -939,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -947,7 +1108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -955,7 +1116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -963,7 +1124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -971,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -979,7 +1140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -987,7 +1148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -995,7 +1156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -1003,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -1011,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -1019,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -1027,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -1035,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -1043,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -1051,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -1059,7 +1220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -1067,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -1075,7 +1236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -1083,7 +1244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -1091,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -1099,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -1107,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -1115,7 +1276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -1123,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -1131,7 +1292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -1139,7 +1300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -1147,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -1155,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -1163,7 +1324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -1171,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -1179,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -1187,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -1195,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -1203,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -1211,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -1219,7 +1380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -1227,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -1235,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -1243,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -1251,7 +1412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -1259,7 +1420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -1267,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2</v>
       </c>
@@ -1275,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -1283,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2</v>
       </c>
@@ -1291,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2</v>
       </c>
@@ -1299,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2</v>
       </c>
@@ -1307,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2</v>
       </c>
@@ -1315,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -1323,7 +1484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2</v>
       </c>
@@ -1331,7 +1492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2</v>
       </c>
@@ -1339,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2</v>
       </c>
@@ -1347,7 +1508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2</v>
       </c>
@@ -1355,7 +1516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2</v>
       </c>
@@ -1363,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -1371,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -1379,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2</v>
       </c>
@@ -1387,7 +1548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2</v>
       </c>
@@ -1395,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2</v>
       </c>
@@ -1403,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2</v>
       </c>
@@ -1411,7 +1572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -1419,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -1427,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>2</v>
       </c>
@@ -1435,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>2</v>
       </c>
@@ -1443,7 +1604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>2</v>
       </c>
@@ -1451,7 +1612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>2</v>
       </c>
@@ -1459,7 +1620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>2</v>
       </c>
@@ -1467,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -1475,7 +1636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>2</v>
       </c>
@@ -1483,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2</v>
       </c>
@@ -1491,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2</v>
       </c>
@@ -1499,7 +1660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2</v>
       </c>
@@ -1507,7 +1668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2</v>
       </c>
@@ -1515,7 +1676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>2</v>
       </c>
@@ -1523,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>2</v>
       </c>
@@ -1531,7 +1692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>2</v>
       </c>
@@ -1539,7 +1700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>2</v>
       </c>
@@ -1547,7 +1708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>2</v>
       </c>
@@ -1555,7 +1716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>2</v>
       </c>
@@ -1563,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>2</v>
       </c>
@@ -1571,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>2</v>
       </c>
@@ -1579,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>2</v>
       </c>
@@ -1587,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>2</v>
       </c>
@@ -1595,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>2</v>
       </c>
@@ -1603,7 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>2</v>
       </c>
@@ -1611,7 +1772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>2</v>
       </c>
@@ -1619,7 +1780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>2</v>
       </c>
@@ -1627,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>2</v>
       </c>
@@ -1635,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>2</v>
       </c>
@@ -1643,7 +1804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2</v>
       </c>
@@ -1651,7 +1812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>2</v>
       </c>
@@ -1659,7 +1820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>2</v>
       </c>
@@ -1667,7 +1828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>2</v>
       </c>
@@ -1675,7 +1836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>2</v>
       </c>
@@ -1683,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>2</v>
       </c>
@@ -1691,7 +1852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>2</v>
       </c>
@@ -1699,7 +1860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>2</v>
       </c>
@@ -1707,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>2</v>
       </c>
@@ -1715,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>2</v>
       </c>
@@ -1723,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>2</v>
       </c>
@@ -1731,7 +1892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>2</v>
       </c>
@@ -1739,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>2</v>
       </c>
@@ -1747,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>2</v>
       </c>
@@ -1755,7 +1916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>2</v>
       </c>
@@ -1763,7 +1924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>2</v>
       </c>
@@ -1771,7 +1932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>2</v>
       </c>
@@ -1779,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>2</v>
       </c>
@@ -1787,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>2</v>
       </c>
@@ -1795,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>2</v>
       </c>
@@ -1803,7 +1964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>2</v>
       </c>
@@ -1811,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>2</v>
       </c>
@@ -1819,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>2</v>
       </c>
@@ -1827,7 +1988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>2</v>
       </c>
@@ -1835,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>2</v>
       </c>
@@ -1843,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>2</v>
       </c>
@@ -1851,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>2</v>
       </c>
@@ -1859,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>2</v>
       </c>
@@ -1867,7 +2028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>2</v>
       </c>
@@ -1875,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>2</v>
       </c>
@@ -1883,7 +2044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>2</v>
       </c>
@@ -1891,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>2</v>
       </c>
@@ -1899,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>2</v>
       </c>
@@ -1907,7 +2068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>2</v>
       </c>
@@ -1915,7 +2076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>2</v>
       </c>
@@ -1923,7 +2084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>2</v>
       </c>
@@ -1931,7 +2092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>2</v>
       </c>
@@ -1939,7 +2100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>2</v>
       </c>
@@ -1947,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>2</v>
       </c>
@@ -1955,7 +2116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>2</v>
       </c>
@@ -1963,7 +2124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>2</v>
       </c>
@@ -1971,7 +2132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>2</v>
       </c>
@@ -1979,7 +2140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>2</v>
       </c>
@@ -1990,19 +2151,19 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2011,12 +2172,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/RMPP/RMPP_Unit09_Exa9.1D.xlsx
+++ b/RMPP/RMPP_Unit09_Exa9.1D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F8871D6DCD9709C9AAE33394B41C516C04133891" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB7C6686-E232-4AE4-823E-12C7AF3DAA39}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_F8871D6DCD9709C9AAE33394B41C516C04133891" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9368026E-B156-4E74-9DD0-F2E693F818D7}"/>
   <bookViews>
-    <workbookView xWindow="28185" yWindow="0" windowWidth="25665" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31830" yWindow="1980" windowWidth="22305" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>Interpretation</t>
   </si>
   <si>
-    <t>It is clear from the chart that Brand A is the least preferred, followed by Brand B, while the majority of respondents preferred another brand.</t>
+    <t>It is clear from the chart that Brand A is the least preferred, followed by Brand B, while the majority of respondents preferred another brand. (Interpretation from Charts Worksheet)</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +131,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,10 +733,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:O161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -960,7 +963,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -979,7 +982,7 @@
         <v>45.555555555555557</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -1081,34 +1084,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -2149,6 +2187,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D29:O31"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="35" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
